--- a/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_10_9_summer.xlsx
@@ -423,13 +423,13 @@
         <v>1989</v>
       </c>
       <c r="C2">
-        <v>4.070810498787703</v>
+        <v>4.077281088115026</v>
       </c>
       <c r="D2">
         <v>1990</v>
       </c>
       <c r="E2">
-        <v>2.938039590662322</v>
+        <v>3.013456857613561</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,13 +440,13 @@
         <v>1990</v>
       </c>
       <c r="C3">
-        <v>5.160693331242894</v>
+        <v>4.731933890736406</v>
       </c>
       <c r="D3">
         <v>1991</v>
       </c>
       <c r="E3">
-        <v>4.221727333422343</v>
+        <v>4.482374336309247</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,13 +457,13 @@
         <v>1991</v>
       </c>
       <c r="C4">
-        <v>7.546366987894282</v>
+        <v>7.427427238257622</v>
       </c>
       <c r="D4">
         <v>1992</v>
       </c>
       <c r="E4">
-        <v>5.683452322749094</v>
+        <v>6.028771162940338</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,13 +474,13 @@
         <v>1992</v>
       </c>
       <c r="C5">
-        <v>4.006245321455038</v>
+        <v>3.697244903694119</v>
       </c>
       <c r="D5">
         <v>1993</v>
       </c>
       <c r="E5">
-        <v>5.347702329862036</v>
+        <v>5.35733476656457</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,13 +491,13 @@
         <v>1993</v>
       </c>
       <c r="C6">
-        <v>-1.215833328003513</v>
+        <v>-0.9010546343133807</v>
       </c>
       <c r="D6">
         <v>1994</v>
       </c>
       <c r="E6">
-        <v>2.073901557043811</v>
+        <v>1.483308540745609</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -508,13 +508,13 @@
         <v>1994</v>
       </c>
       <c r="C7">
-        <v>1.925996996358492</v>
+        <v>1.278852728916302</v>
       </c>
       <c r="D7">
         <v>1995</v>
       </c>
       <c r="E7">
-        <v>0.9788730637807941</v>
+        <v>1.211545622441634</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -525,13 +525,13 @@
         <v>1995</v>
       </c>
       <c r="C8">
-        <v>1.768240960817691</v>
+        <v>2.40113223806655</v>
       </c>
       <c r="D8">
         <v>1996</v>
       </c>
       <c r="E8">
-        <v>1.245293817949067</v>
+        <v>1.221134982408678</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -542,13 +542,13 @@
         <v>1996</v>
       </c>
       <c r="C9">
-        <v>0.3964686323729483</v>
+        <v>0.4170416928886977</v>
       </c>
       <c r="D9">
         <v>1997</v>
       </c>
       <c r="E9">
-        <v>1.737945171598465</v>
+        <v>1.535040327807513</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -559,13 +559,13 @@
         <v>1997</v>
       </c>
       <c r="C10">
-        <v>1.911229176079332</v>
+        <v>2.025199397970145</v>
       </c>
       <c r="D10">
         <v>1998</v>
       </c>
       <c r="E10">
-        <v>1.765574213751031</v>
+        <v>1.766027057877517</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -576,13 +576,13 @@
         <v>1998</v>
       </c>
       <c r="C11">
-        <v>2.604301316925928</v>
+        <v>2.535130037318867</v>
       </c>
       <c r="D11">
         <v>1999</v>
       </c>
       <c r="E11">
-        <v>2.171222607713874</v>
+        <v>2.27519030414034</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -593,13 +593,13 @@
         <v>1999</v>
       </c>
       <c r="C12">
-        <v>1.158324173575842</v>
+        <v>1.085017960020163</v>
       </c>
       <c r="D12">
         <v>2000</v>
       </c>
       <c r="E12">
-        <v>1.58292366310937</v>
+        <v>1.594198396297974</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -610,13 +610,13 @@
         <v>2000</v>
       </c>
       <c r="C13">
-        <v>2.318031336725856</v>
+        <v>2.388449447315399</v>
       </c>
       <c r="D13">
         <v>2001</v>
       </c>
       <c r="E13">
-        <v>1.845439021891959</v>
+        <v>1.896063224966515</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,13 +627,13 @@
         <v>2001</v>
       </c>
       <c r="C14">
-        <v>1.789654024265319</v>
+        <v>1.940295589655605</v>
       </c>
       <c r="D14">
         <v>2002</v>
       </c>
       <c r="E14">
-        <v>2.196383146547265</v>
+        <v>2.152498180268503</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -644,13 +644,13 @@
         <v>2002</v>
       </c>
       <c r="C15">
-        <v>0.4300398704087716</v>
+        <v>0.1294783794713039</v>
       </c>
       <c r="D15">
         <v>2003</v>
       </c>
       <c r="E15">
-        <v>1.402332333946066</v>
+        <v>1.357330623126884</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +661,13 @@
         <v>2003</v>
       </c>
       <c r="C16">
-        <v>0.03511167739842502</v>
+        <v>0.2239492534813481</v>
       </c>
       <c r="D16">
         <v>2004</v>
       </c>
       <c r="E16">
-        <v>0.2562430727641285</v>
+        <v>0.1832633470655098</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>2004</v>
       </c>
       <c r="C17">
-        <v>0.8278362239799275</v>
+        <v>0.669497318959178</v>
       </c>
       <c r="D17">
         <v>2005</v>
       </c>
       <c r="E17">
-        <v>0.3390177388588489</v>
+        <v>0.4274836977099516</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>1.225087189744944</v>
+        <v>0.9511721486624936</v>
       </c>
       <c r="D18">
         <v>2006</v>
       </c>
       <c r="E18">
-        <v>0.667546990777379</v>
+        <v>0.886066450790457</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>2006</v>
       </c>
       <c r="C19">
-        <v>1.25962308444949</v>
+        <v>1.350833417525776</v>
       </c>
       <c r="D19">
         <v>2007</v>
       </c>
       <c r="E19">
-        <v>1.234589750228898</v>
+        <v>1.249180524815863</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -729,13 +729,13 @@
         <v>2007</v>
       </c>
       <c r="C20">
-        <v>2.913301031104365</v>
+        <v>3.305550968939119</v>
       </c>
       <c r="D20">
         <v>2008</v>
       </c>
       <c r="E20">
-        <v>2.470114202933038</v>
+        <v>2.444559947892744</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -746,13 +746,13 @@
         <v>2008</v>
       </c>
       <c r="C21">
-        <v>3.255112626708478</v>
+        <v>2.741128804567849</v>
       </c>
       <c r="D21">
         <v>2009</v>
       </c>
       <c r="E21">
-        <v>3.010064440080429</v>
+        <v>3.207064487734335</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -763,13 +763,13 @@
         <v>2009</v>
       </c>
       <c r="C22">
-        <v>-6.189442960727964</v>
+        <v>-5.478868953971427</v>
       </c>
       <c r="D22">
         <v>2010</v>
       </c>
       <c r="E22">
-        <v>-1.115179555546519</v>
+        <v>-2.015486574969738</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -780,13 +780,13 @@
         <v>2010</v>
       </c>
       <c r="C23">
-        <v>0.227019714730492</v>
+        <v>-0.1094048593225039</v>
       </c>
       <c r="D23">
         <v>2011</v>
       </c>
       <c r="E23">
-        <v>-1.435416797561895</v>
+        <v>-1.306092631642397</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -797,13 +797,13 @@
         <v>2011</v>
       </c>
       <c r="C24">
-        <v>2.901943278928609</v>
+        <v>3.381937564063731</v>
       </c>
       <c r="D24">
         <v>2012</v>
       </c>
       <c r="E24">
-        <v>0.5233902163345405</v>
+        <v>0.8627271536207459</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -814,13 +814,13 @@
         <v>2012</v>
       </c>
       <c r="C25">
-        <v>1.790274425470972</v>
+        <v>1.637009187238481</v>
       </c>
       <c r="D25">
         <v>2013</v>
       </c>
       <c r="E25">
-        <v>2.82221886911711</v>
+        <v>2.774647569643585</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -831,13 +831,13 @@
         <v>2013</v>
       </c>
       <c r="C26">
-        <v>0.1236862571897479</v>
+        <v>-0.03183845066089264</v>
       </c>
       <c r="D26">
         <v>2014</v>
       </c>
       <c r="E26">
-        <v>1.158834071395143</v>
+        <v>1.102201969172678</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -848,13 +848,13 @@
         <v>2014</v>
       </c>
       <c r="C27">
-        <v>1.857760673406283</v>
+        <v>1.810762846774527</v>
       </c>
       <c r="D27">
         <v>2015</v>
       </c>
       <c r="E27">
-        <v>1.070117761036204</v>
+        <v>1.207964354105195</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -865,13 +865,13 @@
         <v>2015</v>
       </c>
       <c r="C28">
-        <v>1.180270576178954</v>
+        <v>1.292027346513414</v>
       </c>
       <c r="D28">
         <v>2016</v>
       </c>
       <c r="E28">
-        <v>0.9828438564608355</v>
+        <v>0.9897401519578963</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -882,13 +882,13 @@
         <v>2016</v>
       </c>
       <c r="C29">
-        <v>1.682788630021537</v>
+        <v>1.566699735746391</v>
       </c>
       <c r="D29">
         <v>2017</v>
       </c>
       <c r="E29">
-        <v>1.524079785503973</v>
+        <v>1.595944879287448</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -899,13 +899,13 @@
         <v>2017</v>
       </c>
       <c r="C30">
-        <v>1.797357764064156</v>
+        <v>1.752318341645176</v>
       </c>
       <c r="D30">
         <v>2018</v>
       </c>
       <c r="E30">
-        <v>1.792179635996094</v>
+        <v>1.832607040765044</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -916,13 +916,13 @@
         <v>2018</v>
       </c>
       <c r="C31">
-        <v>2.110288011358219</v>
+        <v>2.349173111882341</v>
       </c>
       <c r="D31">
         <v>2019</v>
       </c>
       <c r="E31">
-        <v>2.195414156958653</v>
+        <v>2.133017022807637</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -933,13 +933,13 @@
         <v>2019</v>
       </c>
       <c r="C32">
-        <v>1.090028298452594</v>
+        <v>0.8252516928923814</v>
       </c>
       <c r="D32">
         <v>2020</v>
       </c>
       <c r="E32">
-        <v>1.7038902012801</v>
+        <v>1.704160690624001</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,13 +950,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-2.298160567755181</v>
+        <v>-1.611564731980897</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-0.189504292099274</v>
+        <v>-0.741724804865096</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -967,13 +967,13 @@
         <v>2021</v>
       </c>
       <c r="C34">
-        <v>-0.4097622583637439</v>
+        <v>-0.5453046728852495</v>
       </c>
       <c r="D34">
         <v>2022</v>
       </c>
       <c r="E34">
-        <v>-1.402182612722491</v>
+        <v>-1.767889269204159</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>2022</v>
       </c>
       <c r="C35">
-        <v>1.337727334836236</v>
+        <v>1.726013280798222</v>
       </c>
       <c r="D35">
         <v>2023</v>
       </c>
       <c r="E35">
-        <v>0.0005402952784727688</v>
+        <v>0.05925426804285205</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>2023</v>
       </c>
       <c r="C36">
-        <v>-0.1810712239929457</v>
+        <v>-0.06641493770841445</v>
       </c>
       <c r="D36">
         <v>2024</v>
       </c>
       <c r="E36">
-        <v>0.942795092185289</v>
+        <v>0.7991555368092929</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>2024</v>
       </c>
       <c r="C37">
-        <v>0.02136143473541186</v>
+        <v>-0.1397017661237232</v>
       </c>
       <c r="D37">
         <v>2025</v>
       </c>
       <c r="E37">
-        <v>0.3538309530010331</v>
+        <v>0.385156833908451</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1035,13 +1035,13 @@
         <v>2025</v>
       </c>
       <c r="C38">
-        <v>0.1723638860727128</v>
+        <v>0.06464796496492564</v>
       </c>
       <c r="D38">
         <v>2026</v>
       </c>
       <c r="E38">
-        <v>-0.1770403288700262</v>
+        <v>-0.06351196001971315</v>
       </c>
     </row>
   </sheetData>
